--- a/goap-master/Assets/Scripts/Config/EmojiTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/EmojiTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAD01BE-DEAE-461A-ACD2-E52211721225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89A79C-AB2A-4239-B13A-A94B27044181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>#key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,26 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>食物图片位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Happy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,7 +76,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老板你真的不考虑加张桌子吗?</t>
+    <t>是否文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客人因为难吃而离开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -104,15 +92,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
+    <t>消息中心的文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoji名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emoji图片位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HaveFun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/Arlan Trindade/Free emojis pixel art/emojis-x4-128x128/E15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNameStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好的,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WaitTooLong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplainSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/Arlan Trindade/Free emojis pixel art/emojis-x4-128x128/E16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PasserBy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmojiMSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextMSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterMSG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挺好吃的;下次还来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/Arlan Trindade/Free emojis pixel art/emojis-x4-128x128/E10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真难吃;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板上菜快点啊艹;能快点吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好多人啊,下次吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Textures/Arlan Trindade/Free emojis pixel art/emojis-x4-128x128/E8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路过~路过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板你真的不考虑加张桌子吗?;没座位啊;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等这么久?吃个毛!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客人因为长时间等待离开了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,8 +231,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -179,8 +260,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -216,8 +302,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="251">
+  <cellStyleXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -971,8 +1101,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -991,8 +1124,20 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" xfId="251" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" xfId="251" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="251">
+  <cellStyles count="252">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
@@ -1119,6 +1264,7 @@
     <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="输出" xfId="251" builtinId="21"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -1521,34 +1667,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="24.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1556,73 +1706,133 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
+    <row r="11" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
+    <row r="12" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+    <row r="13" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/goap-master/Assets/Scripts/Config/EmojiTem.xlsx
+++ b/goap-master/Assets/Scripts/Config/EmojiTem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\githubProj\iktest\goap-master\Assets\Scripts\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E89A79C-AB2A-4239-B13A-A94B27044181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9597797D-B5D6-4F91-BFD7-793A0EE47C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>#key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,26 @@
   </si>
   <si>
     <t>客人因为长时间等待离开了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoHide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表情是否自动关闭;只控制emoji</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1667,13 +1687,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1682,9 +1702,10 @@
     <col min="2" max="2" width="43.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="34.75" customWidth="1"/>
+    <col min="5" max="5" width="37.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1697,8 +1718,11 @@
       <c r="D1" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,8 +1735,11 @@
       <c r="D2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1725,8 +1752,11 @@
       <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1736,8 +1766,11 @@
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
+      <c r="E4" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -1750,8 +1783,11 @@
       <c r="D5" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1764,8 +1800,11 @@
       <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -1776,8 +1815,11 @@
         <v>35</v>
       </c>
       <c r="D7" s="6"/>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -1786,8 +1828,11 @@
         <v>13</v>
       </c>
       <c r="D8" s="7"/>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1796,16 +1841,22 @@
         <v>20</v>
       </c>
       <c r="D9" s="7"/>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="E10" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1815,16 +1866,22 @@
       <c r="C11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1833,6 +1890,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
